--- a/設計書/02貸出.xlsx
+++ b/設計書/02貸出.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD602B6-6FBC-490A-A464-01DA5D93DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FA97020-0ECC-4B2A-ABD8-7F04139D748D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -2758,7 +2757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2944,8 +2943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2559626" y="17217736"/>
-          <a:ext cx="9580420" cy="6213764"/>
+          <a:off x="2565398" y="16398008"/>
+          <a:ext cx="9597739" cy="5925129"/>
           <a:chOff x="15249524" y="1466850"/>
           <a:chExt cx="7769662" cy="5076824"/>
         </a:xfrm>
@@ -3258,8 +3257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2593398" y="9237085"/>
-          <a:ext cx="9601811" cy="6658830"/>
+          <a:off x="2599170" y="8798357"/>
+          <a:ext cx="9619130" cy="6347104"/>
           <a:chOff x="2166938" y="15311437"/>
           <a:chExt cx="9638612" cy="6303808"/>
         </a:xfrm>
@@ -3622,8 +3621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3017447" y="904256"/>
-          <a:ext cx="8204736" cy="6196199"/>
+          <a:off x="3017447" y="869619"/>
+          <a:ext cx="8222054" cy="5896018"/>
           <a:chOff x="3017447" y="891267"/>
           <a:chExt cx="8226384" cy="5369256"/>
         </a:xfrm>
@@ -5258,91 +5257,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="59.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -5352,27 +5349,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -5380,22 +5375,22 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5406,7 +5401,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="5" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +5424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K7" s="5">
         <v>1</v>
       </c>
@@ -5452,7 +5447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K8" s="5">
         <v>2</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="5">
         <v>3</v>
       </c>
@@ -5498,7 +5493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K10" s="5">
         <v>4</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K11" s="5">
         <v>5</v>
       </c>
@@ -5544,7 +5539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" s="5">
         <v>6</v>
       </c>
@@ -5567,7 +5562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K13" s="5">
         <v>7</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K14" s="5">
         <v>8</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="5">
         <v>9</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" s="5">
         <v>10</v>
       </c>
@@ -5659,7 +5654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="11:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="11:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="5">
         <v>11</v>
       </c>
@@ -5682,7 +5677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="5">
         <v>12</v>
       </c>
@@ -5705,7 +5700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K19" s="5">
         <v>13</v>
       </c>
@@ -5728,7 +5723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K20" s="5">
         <v>14</v>
       </c>
@@ -5751,7 +5746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="11:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="11:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K21" s="5">
         <v>15</v>
       </c>
@@ -5774,7 +5769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="11:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="11:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" s="5">
         <v>16</v>
       </c>
@@ -5797,7 +5792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K23" s="5">
         <v>17</v>
       </c>
@@ -5820,7 +5815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" s="5">
         <v>18</v>
       </c>
@@ -5843,7 +5838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" s="5">
         <v>19</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" s="5">
         <v>20</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K27" s="5">
         <v>21</v>
       </c>
@@ -5912,7 +5907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" s="5">
         <v>22</v>
       </c>
@@ -5935,7 +5930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" s="5">
         <v>23</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" s="5">
         <v>24</v>
       </c>
@@ -5981,7 +5976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" s="5">
         <v>25</v>
       </c>
@@ -6004,12 +5999,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="5" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K36" s="5">
         <v>1</v>
       </c>
@@ -6055,7 +6050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K37" s="5">
         <v>2</v>
       </c>
@@ -6078,7 +6073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K38" s="5">
         <v>3</v>
       </c>
@@ -6101,7 +6096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K39" s="5">
         <v>4</v>
       </c>
@@ -6124,7 +6119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
         <v>133</v>
@@ -6145,7 +6140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
         <v>17</v>
@@ -6166,17 +6161,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K66" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K67" s="5" t="s">
         <v>5</v>
       </c>
@@ -6199,7 +6194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K68" s="5">
         <v>1</v>
       </c>
@@ -6222,7 +6217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K69" s="5">
         <v>2</v>
       </c>
@@ -6245,7 +6240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K70" s="5">
         <v>3</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K71" s="5">
         <v>4</v>
       </c>
@@ -6291,7 +6286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K72" s="5">
         <v>5</v>
       </c>
@@ -6322,16 +6317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6344,28 +6337,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="53.125" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6373,7 +6364,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -6398,7 +6389,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -6427,7 +6418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -6456,7 +6447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -6485,7 +6476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -6514,7 +6505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -6543,7 +6534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>182</v>
       </c>
@@ -6572,7 +6563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>183</v>
       </c>
@@ -6601,7 +6592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>192</v>
       </c>
@@ -6621,7 +6612,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>197</v>
       </c>
@@ -6641,7 +6632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>203</v>
       </c>
@@ -6659,7 +6650,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -6679,7 +6670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>217</v>
       </c>
@@ -6699,7 +6690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>218</v>
       </c>
@@ -6719,7 +6710,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
@@ -6739,28 +6730,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
@@ -6771,27 +6762,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6805,7 +6794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6819,7 +6808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6833,7 +6822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6847,7 +6836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6861,7 +6850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6875,7 +6864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6890,7 +6879,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6911,26 +6900,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -6941,7 +6928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6952,7 +6939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6963,7 +6950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6974,7 +6961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6985,7 +6972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6996,7 +6983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -7007,7 +6994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -7018,7 +7005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -7036,24 +7023,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7051,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7089,7 +7074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7112,7 +7097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7133,7 +7118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7156,7 +7141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -7177,7 +7162,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -7200,7 +7185,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -7221,7 +7206,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -7244,7 +7229,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -7265,7 +7250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -7288,7 +7273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -7309,7 +7294,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -7330,7 +7315,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -7353,7 +7338,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -7373,7 +7358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -7396,7 +7381,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -7417,7 +7402,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -7438,7 +7423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -7459,7 +7444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -7480,7 +7465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -7508,31 +7493,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -7561,7 +7544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7590,7 +7573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7619,7 +7602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7648,7 +7631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -7677,7 +7660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
